--- a/25-26/1.INVOICES/BK001/BK RockStone Invoice template, PO, Packing List, Proforma invoice.xlsx
+++ b/25-26/1.INVOICES/BK001/BK RockStone Invoice template, PO, Packing List, Proforma invoice.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BK ROCKSTONE PVT LTD\25-26\1.INVOICES\BK001\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BK ROCKSTONE PVT LTD\BK Rockstone Invoices\25-26\1.INVOICES\BK001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0003A2D-D09C-48F2-A54F-240FC6BF323C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1110064-8868-4DF1-B3EC-7DC1C2D777DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="company data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="PO" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">PO!$A$1:$K$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">PO!$A$1:$K$42</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="168">
   <si>
     <t>financial year</t>
   </si>
@@ -406,9 +406,6 @@
     <t>To the Order</t>
   </si>
   <si>
-    <t>GST 0.1%</t>
-  </si>
-  <si>
     <t>Nine Thousand Six Hundred Fifty Six Dollars and Twenty Nine Cent</t>
   </si>
   <si>
@@ -526,9 +523,6 @@
     <t>Proforma Invoice</t>
   </si>
   <si>
-    <t>container 1</t>
-  </si>
-  <si>
     <t xml:space="preserve">90/3, NR. BRAMBHANI ICE FACTORY, NR. RADHIKA SOCIETY, </t>
   </si>
   <si>
@@ -550,40 +544,52 @@
     <t>PAN NO. : AANCB5070H</t>
   </si>
   <si>
-    <t>PO01/25-26</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7 HILLS GRANIMARMO PRIVATE LIMITED</t>
-  </si>
-  <si>
-    <t>MUNDRA</t>
-  </si>
-  <si>
-    <t>Black Forest Granite Slabs
- Size: 2.50 Length X 0.70 Height, Thickness : 18 
-mm+</t>
-  </si>
-  <si>
-    <t>P White Granite Slabs
- Size: 2.50 Length X 0.70 Height, Thickness : 18 
-mm+</t>
-  </si>
-  <si>
     <t>SQ FOOT</t>
-  </si>
-  <si>
-    <t>PURCHASE CONTRACT</t>
-  </si>
-  <si>
-    <t>Advance</t>
   </si>
   <si>
     <t>Delivery Time</t>
   </si>
   <si>
-    <t>KHASRA NO 884/9, PLOT NO 44,45, VILLAGE-RALAWATA,
- TEHSIL-KISHANGARH, Ajmer, Rajasthan, 305801
-GST: 08AABCZ7282R1ZB</t>
+    <t xml:space="preserve"> 16 September 2025</t>
+  </si>
+  <si>
+    <t>PURCHASE ORDER</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PO01.1/25-26</t>
+  </si>
+  <si>
+    <t>SPARKLE STONES</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SY NO 167/A1/A2,
+ AREMPULA VILLAGE, KHAMMAM RURAL,
+ KHAMMAM, TELANGANA, CODE: 36
+ GSTIN: 36ADJFS3568B1ZZ</t>
+  </si>
+  <si>
+    <t>Polised Granite slabs</t>
+  </si>
+  <si>
+    <t>GST 0.1%</t>
+  </si>
+  <si>
+    <t>LOOSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PICU2844000 </t>
+  </si>
+  <si>
+    <t>Absolute Black</t>
+  </si>
+  <si>
+    <t>Galaxy Black</t>
+  </si>
+  <si>
+    <t>Steel grey polished</t>
+  </si>
+  <si>
+    <t>Steel grey leathered</t>
   </si>
 </sst>
 </file>
@@ -1321,7 +1327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="233">
+  <cellXfs count="234">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1489,7 +1495,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1753,14 +1758,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1769,25 +1775,20 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1810,38 +1811,72 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="11">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2034,13 +2069,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>383717</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3352,8 +3387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3401,7 +3436,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -3465,9 +3500,7 @@
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="7">
-        <v>45869</v>
-      </c>
+      <c r="B4" s="7"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -3495,10 +3528,10 @@
     </row>
     <row r="5" spans="1:26" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -3591,11 +3624,11 @@
       <c r="Z7" s="4"/>
     </row>
     <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="94" t="s">
+      <c r="A8" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="96" t="s">
-        <v>126</v>
+      <c r="B8" s="95" t="s">
+        <v>125</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -3623,8 +3656,8 @@
       <c r="Z8" s="4"/>
     </row>
     <row r="9" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="95"/>
-      <c r="B9" s="95"/>
+      <c r="A9" s="94"/>
+      <c r="B9" s="94"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
@@ -3651,8 +3684,8 @@
       <c r="Z9" s="4"/>
     </row>
     <row r="10" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="95"/>
-      <c r="B10" s="95"/>
+      <c r="A10" s="94"/>
+      <c r="B10" s="94"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -3679,8 +3712,8 @@
       <c r="Z10" s="4"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="95"/>
-      <c r="B11" s="95"/>
+      <c r="A11" s="94"/>
+      <c r="B11" s="94"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
@@ -3707,8 +3740,8 @@
       <c r="Z11" s="4"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="95"/>
-      <c r="B12" s="95"/>
+      <c r="A12" s="94"/>
+      <c r="B12" s="94"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
@@ -3735,8 +3768,8 @@
       <c r="Z12" s="4"/>
     </row>
     <row r="13" spans="1:26" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="95"/>
-      <c r="B13" s="95"/>
+      <c r="A13" s="94"/>
+      <c r="B13" s="94"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
@@ -3927,7 +3960,7 @@
         <v>27</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -3959,7 +3992,7 @@
         <v>28</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -3991,7 +4024,7 @@
         <v>29</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -4023,7 +4056,7 @@
         <v>30</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -4055,7 +4088,7 @@
         <v>31</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -4084,10 +4117,10 @@
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -4116,11 +4149,9 @@
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
-      <c r="B25" s="14">
-        <v>450</v>
-      </c>
+      <c r="B25" s="14"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -4148,10 +4179,10 @@
     </row>
     <row r="26" spans="1:26" s="83" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
-      <c r="B26" s="14">
-        <v>1</v>
+      <c r="B26" s="14" t="s">
+        <v>164</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -4180,10 +4211,10 @@
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B27" s="14">
-        <v>100</v>
+        <v>111.84</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -4212,10 +4243,10 @@
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B28" s="14">
-        <v>10</v>
+        <v>40.1</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -4244,10 +4275,10 @@
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
-      <c r="B29" s="14">
-        <v>2</v>
+      <c r="B29" s="14" t="s">
+        <v>165</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -4276,10 +4307,10 @@
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B30" s="14">
-        <v>200</v>
+        <v>111.8</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -4308,10 +4339,10 @@
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B31" s="14">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -4340,10 +4371,10 @@
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
-      <c r="B32" s="14">
-        <v>3</v>
+      <c r="B32" s="14" t="s">
+        <v>166</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -4372,10 +4403,10 @@
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B33" s="14">
-        <v>300</v>
+        <v>109.48</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -4404,10 +4435,10 @@
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B34" s="14">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -4436,10 +4467,10 @@
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
-      <c r="B35" s="14">
-        <v>4</v>
+      <c r="B35" s="14" t="s">
+        <v>167</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -4468,10 +4499,10 @@
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B36" s="14">
-        <v>400</v>
+        <v>109.93</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -4500,10 +4531,10 @@
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B37" s="14">
-        <v>40</v>
+        <v>21.35</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -31557,38 +31588,53 @@
     <mergeCell ref="B8:B13"/>
   </mergeCells>
   <conditionalFormatting sqref="B1:B3 B5:B28">
-    <cfRule type="containsBlanks" dxfId="7" priority="5">
+    <cfRule type="containsBlanks" dxfId="10" priority="8">
       <formula>LEN(TRIM(B1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH(("FALSE"),(B6))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="select the financial year">
+    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="select the financial year">
       <formula>NOT(ISERROR(SEARCH(("select the financial year"),(B6))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B29:B31">
+  <conditionalFormatting sqref="B30:B31">
+    <cfRule type="containsBlanks" dxfId="7" priority="7">
+      <formula>LEN(TRIM(B30))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33:B34">
+    <cfRule type="containsBlanks" dxfId="6" priority="6">
+      <formula>LEN(TRIM(B33))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36:B37">
+    <cfRule type="containsBlanks" dxfId="5" priority="5">
+      <formula>LEN(TRIM(B36))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4">
     <cfRule type="containsBlanks" dxfId="4" priority="4">
+      <formula>LEN(TRIM(B4))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29">
+    <cfRule type="containsBlanks" dxfId="2" priority="3">
       <formula>LEN(TRIM(B29))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B32:B34">
-    <cfRule type="containsBlanks" dxfId="3" priority="3">
+  <conditionalFormatting sqref="B32">
+    <cfRule type="containsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(B32))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B35:B37">
-    <cfRule type="containsBlanks" dxfId="2" priority="2">
+  <conditionalFormatting sqref="B35">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(B35))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4">
-    <cfRule type="containsBlanks" dxfId="1" priority="1">
-      <formula>LEN(TRIM(B4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
@@ -31599,7 +31645,7 @@
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="kindly enter date" sqref="B4" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>44927</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="kindly enter numeric values only" sqref="B25:B37" xr:uid="{00000000-0002-0000-0100-000006000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="kindly enter numeric values only" sqref="B25 B27:B28 B30:B31 B33:B34 B36:B37" xr:uid="{00000000-0002-0000-0100-000006000000}">
       <formula1>0</formula1>
       <formula2>9999999999</formula2>
     </dataValidation>
@@ -31649,8 +31695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60952CD9-8BAE-4411-8457-9DF8EAA6F4B2}">
   <dimension ref="A1:J999"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28:D28"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31672,30 +31718,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="99"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="98"/>
     </row>
     <row r="2" spans="1:10" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="100"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="102"/>
+      <c r="A2" s="99"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="101"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="71" t="s">
@@ -31704,193 +31750,193 @@
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="17"/>
-      <c r="E3" s="103" t="s">
+      <c r="E3" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="104"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="103" t="s">
+      <c r="F3" s="103"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="104"/>
-      <c r="J3" s="106"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="105"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="72" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B4" s="64"/>
       <c r="C4" s="64"/>
       <c r="D4" s="67"/>
-      <c r="E4" s="107" t="str">
+      <c r="E4" s="106" t="str">
         <f>'input data'!B3</f>
         <v>BK001/25-26</v>
       </c>
-      <c r="F4" s="101"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="109">
+      <c r="F4" s="100"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="108">
         <f>'input data'!B4</f>
-        <v>45869</v>
+        <v>0</v>
       </c>
-      <c r="I4" s="110"/>
-      <c r="J4" s="111"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="110"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="126" t="s">
-        <v>118</v>
+      <c r="A5" s="125" t="s">
+        <v>117</v>
       </c>
-      <c r="B5" s="127"/>
-      <c r="C5" s="127"/>
-      <c r="D5" s="128"/>
-      <c r="E5" s="103" t="s">
-        <v>124</v>
+      <c r="B5" s="126"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="127"/>
+      <c r="E5" s="102" t="s">
+        <v>123</v>
       </c>
-      <c r="F5" s="104"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="103" t="s">
+      <c r="F5" s="103"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="104"/>
-      <c r="J5" s="106"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="105"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="129"/>
-      <c r="B6" s="127"/>
-      <c r="C6" s="127"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="130" t="str">
+      <c r="A6" s="128"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="129" t="str">
         <f>'input data'!B5</f>
         <v>PI1508/25-26</v>
       </c>
-      <c r="F6" s="101"/>
-      <c r="G6" s="108"/>
-      <c r="H6" s="131" t="str">
+      <c r="F6" s="100"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="130" t="str">
         <f>'input data'!B6</f>
         <v>AD240725023182F</v>
       </c>
-      <c r="I6" s="101"/>
-      <c r="J6" s="102"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="101"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="129"/>
-      <c r="B7" s="127"/>
-      <c r="C7" s="127"/>
-      <c r="D7" s="128"/>
-      <c r="E7" s="103" t="s">
+      <c r="A7" s="128"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="127"/>
+      <c r="E7" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="104"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="103" t="s">
+      <c r="F7" s="103"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="102" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="104"/>
-      <c r="J7" s="106"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="105"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="129"/>
-      <c r="B8" s="127"/>
-      <c r="C8" s="127"/>
-      <c r="D8" s="128"/>
-      <c r="E8" s="119" t="s">
-        <v>116</v>
-      </c>
-      <c r="F8" s="120"/>
-      <c r="G8" s="121"/>
-      <c r="H8" s="119" t="s">
+      <c r="A8" s="128"/>
+      <c r="B8" s="126"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="127"/>
+      <c r="E8" s="118" t="s">
         <v>115</v>
       </c>
-      <c r="I8" s="101"/>
-      <c r="J8" s="102"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="118" t="s">
+        <v>114</v>
+      </c>
+      <c r="I8" s="100"/>
+      <c r="J8" s="101"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="73" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B9" s="74"/>
       <c r="C9" s="74"/>
       <c r="D9" s="75"/>
-      <c r="E9" s="122" t="s">
+      <c r="E9" s="121" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="123"/>
-      <c r="G9" s="124"/>
-      <c r="H9" s="122" t="s">
+      <c r="F9" s="122"/>
+      <c r="G9" s="123"/>
+      <c r="H9" s="121" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="123"/>
-      <c r="J9" s="125"/>
+      <c r="I9" s="122"/>
+      <c r="J9" s="124"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="68" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="19"/>
-      <c r="E10" s="132" t="str">
+      <c r="E10" s="131" t="str">
         <f>'input data'!B15</f>
         <v>Wooden Crate packing</v>
       </c>
-      <c r="F10" s="95"/>
-      <c r="G10" s="113"/>
-      <c r="H10" s="132" t="str">
+      <c r="F10" s="94"/>
+      <c r="G10" s="112"/>
+      <c r="H10" s="131" t="str">
         <f>'input data'!B14 &amp; " " &amp; 'input data'!B16</f>
         <v>1 FCL</v>
       </c>
-      <c r="I10" s="95"/>
-      <c r="J10" s="113"/>
+      <c r="I10" s="94"/>
+      <c r="J10" s="112"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="133" t="s">
+      <c r="A11" s="132" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="104"/>
-      <c r="C11" s="104"/>
-      <c r="D11" s="105"/>
-      <c r="E11" s="134" t="s">
+      <c r="B11" s="103"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="133" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="135"/>
-      <c r="G11" s="136"/>
-      <c r="H11" s="137" t="s">
+      <c r="F11" s="134"/>
+      <c r="G11" s="135"/>
+      <c r="H11" s="136" t="s">
         <v>46</v>
       </c>
-      <c r="I11" s="135"/>
-      <c r="J11" s="136"/>
+      <c r="I11" s="134"/>
+      <c r="J11" s="135"/>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="112" t="str">
+      <c r="A12" s="111" t="str">
         <f>'input data'!B7</f>
         <v>To the Order</v>
       </c>
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="113"/>
-      <c r="E12" s="114" t="str">
+      <c r="B12" s="94"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="113" t="str">
         <f>'input data'!B17</f>
         <v>FOB</v>
       </c>
-      <c r="F12" s="95"/>
-      <c r="G12" s="113"/>
-      <c r="H12" s="118" t="str">
+      <c r="F12" s="94"/>
+      <c r="G12" s="112"/>
+      <c r="H12" s="117" t="str">
         <f>'input data'!B18</f>
         <v>30 % Advance, Remaning Against Document</v>
       </c>
-      <c r="I12" s="95"/>
-      <c r="J12" s="113"/>
+      <c r="I12" s="94"/>
+      <c r="J12" s="112"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="19"/>
-      <c r="E13" s="115"/>
-      <c r="F13" s="116"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="116"/>
-      <c r="I13" s="116"/>
-      <c r="J13" s="117"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="116"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="115"/>
+      <c r="J13" s="116"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
@@ -31899,17 +31945,17 @@
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="17"/>
-      <c r="E14" s="139" t="s">
-        <v>123</v>
+      <c r="E14" s="138" t="s">
+        <v>122</v>
       </c>
-      <c r="F14" s="104"/>
-      <c r="G14" s="104"/>
-      <c r="H14" s="104"/>
-      <c r="I14" s="104"/>
-      <c r="J14" s="105"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="103"/>
+      <c r="I14" s="103"/>
+      <c r="J14" s="104"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="141" t="str">
+      <c r="A15" s="140" t="str">
         <f>'input data'!B8</f>
         <v xml:space="preserve">GRUPO MARMOLERO SM S. DE R.L. DE C.V.
 Add: ALVARO OBREGON 43, 
@@ -31917,324 +31963,324 @@
 RFC:  GMS170908L86
 Contact : +52 33 1311 4150   </v>
       </c>
-      <c r="B15" s="95"/>
-      <c r="C15" s="95"/>
-      <c r="D15" s="113"/>
-      <c r="E15" s="140"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="95"/>
-      <c r="H15" s="95"/>
-      <c r="I15" s="95"/>
-      <c r="J15" s="113"/>
+      <c r="B15" s="94"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="139"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="94"/>
+      <c r="I15" s="94"/>
+      <c r="J15" s="112"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="140"/>
-      <c r="B16" s="95"/>
-      <c r="C16" s="95"/>
-      <c r="D16" s="113"/>
-      <c r="E16" s="140"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="95"/>
-      <c r="H16" s="95"/>
-      <c r="I16" s="95"/>
-      <c r="J16" s="113"/>
+      <c r="A16" s="139"/>
+      <c r="B16" s="94"/>
+      <c r="C16" s="94"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="139"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="94"/>
+      <c r="H16" s="94"/>
+      <c r="I16" s="94"/>
+      <c r="J16" s="112"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="140"/>
-      <c r="B17" s="95"/>
-      <c r="C17" s="95"/>
-      <c r="D17" s="113"/>
-      <c r="E17" s="140"/>
-      <c r="F17" s="95"/>
-      <c r="G17" s="95"/>
-      <c r="H17" s="95"/>
-      <c r="I17" s="95"/>
-      <c r="J17" s="113"/>
+      <c r="A17" s="139"/>
+      <c r="B17" s="94"/>
+      <c r="C17" s="94"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="139"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="94"/>
+      <c r="I17" s="94"/>
+      <c r="J17" s="112"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="140"/>
-      <c r="B18" s="95"/>
-      <c r="C18" s="95"/>
-      <c r="D18" s="113"/>
-      <c r="E18" s="140"/>
-      <c r="F18" s="95"/>
-      <c r="G18" s="95"/>
-      <c r="H18" s="95"/>
-      <c r="I18" s="95"/>
-      <c r="J18" s="113"/>
+      <c r="A18" s="139"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="112"/>
+      <c r="E18" s="139"/>
+      <c r="F18" s="94"/>
+      <c r="G18" s="94"/>
+      <c r="H18" s="94"/>
+      <c r="I18" s="94"/>
+      <c r="J18" s="112"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="140"/>
-      <c r="B19" s="95"/>
-      <c r="C19" s="95"/>
-      <c r="D19" s="113"/>
-      <c r="E19" s="140"/>
-      <c r="F19" s="95"/>
-      <c r="G19" s="95"/>
-      <c r="H19" s="95"/>
-      <c r="I19" s="95"/>
-      <c r="J19" s="113"/>
+      <c r="A19" s="139"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="139"/>
+      <c r="F19" s="94"/>
+      <c r="G19" s="94"/>
+      <c r="H19" s="94"/>
+      <c r="I19" s="94"/>
+      <c r="J19" s="112"/>
     </row>
     <row r="20" spans="1:10" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="115"/>
-      <c r="B20" s="116"/>
-      <c r="C20" s="116"/>
-      <c r="D20" s="117"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="116"/>
-      <c r="G20" s="116"/>
-      <c r="H20" s="116"/>
-      <c r="I20" s="116"/>
-      <c r="J20" s="117"/>
+      <c r="A20" s="114"/>
+      <c r="B20" s="115"/>
+      <c r="C20" s="115"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="114"/>
+      <c r="F20" s="115"/>
+      <c r="G20" s="115"/>
+      <c r="H20" s="115"/>
+      <c r="I20" s="115"/>
+      <c r="J20" s="116"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="142" t="s">
+      <c r="A21" s="141" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="105"/>
-      <c r="C21" s="142" t="s">
+      <c r="B21" s="104"/>
+      <c r="C21" s="141" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="105"/>
-      <c r="E21" s="142" t="s">
+      <c r="D21" s="104"/>
+      <c r="E21" s="141" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="104"/>
-      <c r="G21" s="105"/>
-      <c r="H21" s="142" t="s">
+      <c r="F21" s="103"/>
+      <c r="G21" s="104"/>
+      <c r="H21" s="141" t="s">
         <v>31</v>
       </c>
-      <c r="I21" s="104"/>
-      <c r="J21" s="105"/>
+      <c r="I21" s="103"/>
+      <c r="J21" s="104"/>
     </row>
     <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="143" t="s">
+      <c r="A22" s="142" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="113"/>
-      <c r="C22" s="144" t="str">
+      <c r="B22" s="112"/>
+      <c r="C22" s="143" t="str">
         <f>'input data'!B19</f>
         <v>CHENNAI</v>
       </c>
-      <c r="D22" s="113"/>
-      <c r="E22" s="145" t="s">
+      <c r="D22" s="112"/>
+      <c r="E22" s="144" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="95"/>
-      <c r="G22" s="113"/>
-      <c r="H22" s="145" t="str">
+      <c r="F22" s="94"/>
+      <c r="G22" s="112"/>
+      <c r="H22" s="144" t="str">
         <f>'input data'!B23</f>
         <v>MEXICO</v>
       </c>
-      <c r="I22" s="95"/>
-      <c r="J22" s="113"/>
+      <c r="I22" s="94"/>
+      <c r="J22" s="112"/>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="146"/>
-      <c r="B23" s="113"/>
-      <c r="C23" s="115"/>
-      <c r="D23" s="117"/>
-      <c r="E23" s="115"/>
-      <c r="F23" s="116"/>
-      <c r="G23" s="117"/>
-      <c r="H23" s="115"/>
-      <c r="I23" s="116"/>
-      <c r="J23" s="117"/>
+      <c r="A23" s="145"/>
+      <c r="B23" s="112"/>
+      <c r="C23" s="114"/>
+      <c r="D23" s="116"/>
+      <c r="E23" s="114"/>
+      <c r="F23" s="115"/>
+      <c r="G23" s="116"/>
+      <c r="H23" s="114"/>
+      <c r="I23" s="115"/>
+      <c r="J23" s="116"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="103" t="s">
+      <c r="A24" s="102" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="105"/>
-      <c r="C24" s="138" t="s">
+      <c r="B24" s="104"/>
+      <c r="C24" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="105"/>
-      <c r="E24" s="103" t="s">
+      <c r="D24" s="104"/>
+      <c r="E24" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="104"/>
-      <c r="G24" s="105"/>
-      <c r="H24" s="138" t="s">
+      <c r="F24" s="103"/>
+      <c r="G24" s="104"/>
+      <c r="H24" s="137" t="s">
         <v>30</v>
       </c>
-      <c r="I24" s="104"/>
-      <c r="J24" s="105"/>
+      <c r="I24" s="103"/>
+      <c r="J24" s="104"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="147"/>
-      <c r="B25" s="117"/>
-      <c r="C25" s="148" t="str">
+      <c r="A25" s="146"/>
+      <c r="B25" s="116"/>
+      <c r="C25" s="147" t="str">
         <f>'input data'!B20</f>
         <v>CHENNAI</v>
       </c>
-      <c r="D25" s="117"/>
-      <c r="E25" s="148" t="str">
+      <c r="D25" s="116"/>
+      <c r="E25" s="147" t="str">
         <f>'input data'!B21</f>
         <v>MANZILLE</v>
       </c>
-      <c r="F25" s="116"/>
-      <c r="G25" s="117"/>
-      <c r="H25" s="148" t="str">
+      <c r="F25" s="115"/>
+      <c r="G25" s="116"/>
+      <c r="H25" s="147" t="str">
         <f>'input data'!B22</f>
         <v>MANZILLE</v>
       </c>
-      <c r="I25" s="116"/>
-      <c r="J25" s="117"/>
+      <c r="I25" s="115"/>
+      <c r="J25" s="116"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="149" t="s">
+      <c r="A26" s="148" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="151" t="s">
+      <c r="B26" s="150" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="104"/>
-      <c r="D26" s="105"/>
-      <c r="E26" s="149" t="s">
+      <c r="C26" s="103"/>
+      <c r="D26" s="104"/>
+      <c r="E26" s="148" t="s">
         <v>55</v>
       </c>
-      <c r="F26" s="103" t="s">
+      <c r="F26" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="G26" s="105"/>
+      <c r="G26" s="104"/>
       <c r="H26" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="I26" s="103" t="s">
+      <c r="I26" s="102" t="s">
         <v>57</v>
       </c>
-      <c r="J26" s="105"/>
+      <c r="J26" s="104"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="150"/>
-      <c r="B27" s="140"/>
-      <c r="C27" s="95"/>
-      <c r="D27" s="113"/>
-      <c r="E27" s="150"/>
-      <c r="F27" s="148" t="s">
+      <c r="A27" s="149"/>
+      <c r="B27" s="139"/>
+      <c r="C27" s="94"/>
+      <c r="D27" s="112"/>
+      <c r="E27" s="149"/>
+      <c r="F27" s="147" t="s">
         <v>58</v>
       </c>
-      <c r="G27" s="117"/>
+      <c r="G27" s="116"/>
       <c r="H27" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="I27" s="148" t="s">
+      <c r="I27" s="147" t="s">
         <v>59</v>
       </c>
-      <c r="J27" s="117"/>
+      <c r="J27" s="116"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="24">
         <v>1</v>
       </c>
-      <c r="B28" s="152">
+      <c r="B28" s="151" t="str">
         <f>'input data'!B26</f>
-        <v>1</v>
+        <v>Absolute Black</v>
       </c>
-      <c r="C28" s="135"/>
-      <c r="D28" s="136"/>
+      <c r="C28" s="134"/>
+      <c r="D28" s="135"/>
       <c r="E28" s="25">
         <v>68022390</v>
       </c>
-      <c r="F28" s="153">
+      <c r="F28" s="152">
         <f>'input data'!B27</f>
-        <v>100</v>
+        <v>111.84</v>
       </c>
-      <c r="G28" s="136"/>
+      <c r="G28" s="135"/>
       <c r="H28" s="66">
         <f>'input data'!B28</f>
-        <v>10</v>
+        <v>40.1</v>
       </c>
-      <c r="I28" s="154">
+      <c r="I28" s="153">
         <f>F28*H28</f>
-        <v>1000</v>
+        <v>4484.7840000000006</v>
       </c>
-      <c r="J28" s="136"/>
+      <c r="J28" s="135"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="24">
         <v>2</v>
       </c>
-      <c r="B29" s="152">
+      <c r="B29" s="151" t="str">
         <f>'input data'!B29</f>
-        <v>2</v>
+        <v>Galaxy Black</v>
       </c>
-      <c r="C29" s="135"/>
-      <c r="D29" s="136"/>
+      <c r="C29" s="134"/>
+      <c r="D29" s="135"/>
       <c r="E29" s="25">
         <v>68022390</v>
       </c>
-      <c r="F29" s="153">
+      <c r="F29" s="152">
         <f>'input data'!B30</f>
-        <v>200</v>
+        <v>111.8</v>
       </c>
-      <c r="G29" s="136"/>
+      <c r="G29" s="135"/>
       <c r="H29" s="66">
         <f>'input data'!B31</f>
-        <v>20</v>
+        <v>26</v>
       </c>
-      <c r="I29" s="154">
+      <c r="I29" s="153">
         <f t="shared" ref="I29:I31" si="0">F29*H29</f>
-        <v>4000</v>
+        <v>2906.7999999999997</v>
       </c>
-      <c r="J29" s="136"/>
+      <c r="J29" s="135"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="24">
         <v>3</v>
       </c>
-      <c r="B30" s="152">
+      <c r="B30" s="151" t="str">
         <f>'input data'!B32</f>
-        <v>3</v>
+        <v>Steel grey polished</v>
       </c>
-      <c r="C30" s="135"/>
-      <c r="D30" s="136"/>
-      <c r="E30" s="92">
+      <c r="C30" s="134"/>
+      <c r="D30" s="135"/>
+      <c r="E30" s="91">
         <v>68022390</v>
       </c>
-      <c r="F30" s="153">
+      <c r="F30" s="152">
         <f>'input data'!B33</f>
-        <v>300</v>
+        <v>109.48</v>
       </c>
-      <c r="G30" s="136"/>
+      <c r="G30" s="135"/>
       <c r="H30" s="84">
         <f>'input data'!B34</f>
-        <v>30</v>
+        <v>19</v>
       </c>
-      <c r="I30" s="154">
+      <c r="I30" s="153">
         <f t="shared" si="0"/>
-        <v>9000</v>
+        <v>2080.12</v>
       </c>
-      <c r="J30" s="136"/>
+      <c r="J30" s="135"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="24">
         <v>4</v>
       </c>
-      <c r="B31" s="152">
+      <c r="B31" s="151" t="str">
         <f>'input data'!B35</f>
-        <v>4</v>
+        <v>Steel grey leathered</v>
       </c>
-      <c r="C31" s="135"/>
-      <c r="D31" s="135"/>
-      <c r="E31" s="93">
+      <c r="C31" s="134"/>
+      <c r="D31" s="134"/>
+      <c r="E31" s="92">
         <v>68022390</v>
       </c>
-      <c r="F31" s="153">
+      <c r="F31" s="152">
         <f>'input data'!B36</f>
-        <v>400</v>
+        <v>109.93</v>
       </c>
-      <c r="G31" s="136"/>
+      <c r="G31" s="135"/>
       <c r="H31" s="85">
         <f>'input data'!B37</f>
-        <v>40</v>
+        <v>21.35</v>
       </c>
-      <c r="I31" s="154">
+      <c r="I31" s="153">
         <f t="shared" si="0"/>
-        <v>16000</v>
+        <v>2347.0055000000002</v>
       </c>
-      <c r="J31" s="136"/>
+      <c r="J31" s="135"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
@@ -32257,14 +32303,14 @@
       <c r="J32" s="78"/>
     </row>
     <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="132" t="str">
+      <c r="A33" s="131" t="str">
         <f>UPPER('input data'!B24)</f>
-        <v>CONTAINER 1</v>
+        <v xml:space="preserve">PICU2844000 </v>
       </c>
-      <c r="B33" s="95"/>
+      <c r="B33" s="94"/>
       <c r="C33" s="14">
         <f>'input data'!B25</f>
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>62</v>
@@ -32313,51 +32359,51 @@
       <c r="F36" s="77"/>
       <c r="G36" s="77"/>
       <c r="H36" s="78"/>
-      <c r="I36" s="164">
+      <c r="I36" s="163">
         <f>SUM(I28:J35)</f>
-        <v>30000</v>
+        <v>11818.709500000001</v>
       </c>
-      <c r="J36" s="157"/>
+      <c r="J36" s="156"/>
     </row>
     <row r="37" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="165" t="s">
-        <v>113</v>
+      <c r="A37" s="164" t="s">
+        <v>112</v>
       </c>
-      <c r="B37" s="166"/>
-      <c r="C37" s="166"/>
-      <c r="D37" s="166"/>
-      <c r="E37" s="166"/>
-      <c r="F37" s="166"/>
-      <c r="G37" s="166"/>
-      <c r="H37" s="167"/>
-      <c r="I37" s="101"/>
-      <c r="J37" s="117"/>
+      <c r="B37" s="165"/>
+      <c r="C37" s="165"/>
+      <c r="D37" s="165"/>
+      <c r="E37" s="165"/>
+      <c r="F37" s="165"/>
+      <c r="G37" s="165"/>
+      <c r="H37" s="166"/>
+      <c r="I37" s="100"/>
+      <c r="J37" s="116"/>
     </row>
     <row r="38" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="155" t="s">
+      <c r="A38" s="154" t="s">
         <v>65</v>
       </c>
-      <c r="B38" s="156"/>
-      <c r="C38" s="156"/>
-      <c r="D38" s="157"/>
-      <c r="E38" s="158" t="s">
-        <v>121</v>
+      <c r="B38" s="155"/>
+      <c r="C38" s="155"/>
+      <c r="D38" s="156"/>
+      <c r="E38" s="157" t="s">
+        <v>120</v>
       </c>
-      <c r="F38" s="156"/>
-      <c r="G38" s="156"/>
-      <c r="H38" s="156"/>
-      <c r="I38" s="104"/>
-      <c r="J38" s="105"/>
+      <c r="F38" s="155"/>
+      <c r="G38" s="155"/>
+      <c r="H38" s="155"/>
+      <c r="I38" s="103"/>
+      <c r="J38" s="104"/>
     </row>
     <row r="39" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="159" t="s">
+      <c r="A39" s="158" t="s">
         <v>66</v>
       </c>
-      <c r="B39" s="160"/>
-      <c r="C39" s="160"/>
-      <c r="D39" s="161"/>
+      <c r="B39" s="159"/>
+      <c r="C39" s="159"/>
+      <c r="D39" s="160"/>
       <c r="E39" s="76" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F39" s="77"/>
       <c r="G39" s="77"/>
@@ -32366,10 +32412,10 @@
       <c r="J39" s="78"/>
     </row>
     <row r="40" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="162"/>
-      <c r="B40" s="98"/>
-      <c r="C40" s="98"/>
-      <c r="D40" s="157"/>
+      <c r="A40" s="161"/>
+      <c r="B40" s="97"/>
+      <c r="C40" s="97"/>
+      <c r="D40" s="156"/>
       <c r="E40" s="79"/>
       <c r="F40" s="64"/>
       <c r="G40" s="64"/>
@@ -32378,12 +32424,12 @@
       <c r="J40" s="80"/>
     </row>
     <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="163" t="s">
+      <c r="A41" s="162" t="s">
         <v>67</v>
       </c>
-      <c r="B41" s="98"/>
-      <c r="C41" s="98"/>
-      <c r="D41" s="157"/>
+      <c r="B41" s="97"/>
+      <c r="C41" s="97"/>
+      <c r="D41" s="156"/>
       <c r="E41" s="79"/>
       <c r="F41" s="64"/>
       <c r="G41" s="64"/>
@@ -32392,10 +32438,10 @@
       <c r="J41" s="80"/>
     </row>
     <row r="42" spans="1:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="100"/>
-      <c r="B42" s="101"/>
-      <c r="C42" s="101"/>
-      <c r="D42" s="108"/>
+      <c r="A42" s="99"/>
+      <c r="B42" s="100"/>
+      <c r="C42" s="100"/>
+      <c r="D42" s="107"/>
       <c r="E42" s="81" t="s">
         <v>68</v>
       </c>
@@ -33435,7 +33481,7 @@
     <mergeCell ref="H4:J4"/>
   </mergeCells>
   <conditionalFormatting sqref="A37">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
+    <cfRule type="containsBlanks" dxfId="3" priority="1">
       <formula>LEN(TRIM(A37))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33461,107 +33507,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="182" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="132" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="103" t="s">
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="105"/>
-      <c r="I2" s="184" t="s">
+      <c r="H2" s="104"/>
+      <c r="I2" s="183" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="105"/>
+      <c r="J2" s="104"/>
     </row>
     <row r="3" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="185" t="s">
-        <v>117</v>
+      <c r="A3" s="184" t="s">
+        <v>116</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="186" t="str">
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="185" t="str">
         <f>'input data'!B3</f>
         <v>BK001/25-26</v>
       </c>
-      <c r="H3" s="117"/>
-      <c r="I3" s="187">
+      <c r="H3" s="116"/>
+      <c r="I3" s="186">
         <f>'input data'!B4</f>
-        <v>45869</v>
+        <v>0</v>
       </c>
-      <c r="J3" s="188"/>
+      <c r="J3" s="187"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="189" t="s">
-        <v>127</v>
+      <c r="A4" s="188" t="s">
+        <v>126</v>
       </c>
-      <c r="B4" s="190"/>
-      <c r="C4" s="190"/>
-      <c r="D4" s="190"/>
-      <c r="E4" s="190"/>
-      <c r="F4" s="191"/>
-      <c r="G4" s="184" t="s">
+      <c r="B4" s="189"/>
+      <c r="C4" s="189"/>
+      <c r="D4" s="189"/>
+      <c r="E4" s="189"/>
+      <c r="F4" s="190"/>
+      <c r="G4" s="183" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="105"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="104"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="189"/>
-      <c r="B5" s="190"/>
-      <c r="C5" s="190"/>
-      <c r="D5" s="190"/>
-      <c r="E5" s="190"/>
-      <c r="F5" s="191"/>
-      <c r="G5" s="148" t="str">
+      <c r="A5" s="188"/>
+      <c r="B5" s="189"/>
+      <c r="C5" s="189"/>
+      <c r="D5" s="189"/>
+      <c r="E5" s="189"/>
+      <c r="F5" s="190"/>
+      <c r="G5" s="147" t="str">
         <f>'input data'!B6</f>
         <v>AD240725023182F</v>
       </c>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="117"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="116"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="189"/>
-      <c r="B6" s="190"/>
-      <c r="C6" s="190"/>
-      <c r="D6" s="190"/>
-      <c r="E6" s="190"/>
-      <c r="F6" s="191"/>
+      <c r="A6" s="188"/>
+      <c r="B6" s="189"/>
+      <c r="C6" s="189"/>
+      <c r="D6" s="189"/>
+      <c r="E6" s="189"/>
+      <c r="F6" s="190"/>
       <c r="G6" s="21"/>
       <c r="H6" s="28"/>
       <c r="I6" s="28"/>
       <c r="J6" s="30"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="189"/>
-      <c r="B7" s="190"/>
-      <c r="C7" s="190"/>
-      <c r="D7" s="190"/>
-      <c r="E7" s="190"/>
-      <c r="F7" s="191"/>
+      <c r="A7" s="188"/>
+      <c r="B7" s="189"/>
+      <c r="C7" s="189"/>
+      <c r="D7" s="189"/>
+      <c r="E7" s="189"/>
+      <c r="F7" s="190"/>
       <c r="G7" s="31" t="s">
         <v>71</v>
       </c>
@@ -33570,53 +33616,53 @@
       <c r="J7" s="17"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="189"/>
-      <c r="B8" s="190"/>
-      <c r="C8" s="190"/>
-      <c r="D8" s="190"/>
-      <c r="E8" s="190"/>
-      <c r="F8" s="191"/>
+      <c r="A8" s="188"/>
+      <c r="B8" s="189"/>
+      <c r="C8" s="189"/>
+      <c r="D8" s="189"/>
+      <c r="E8" s="189"/>
+      <c r="F8" s="190"/>
       <c r="G8" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H8" s="34"/>
       <c r="I8" s="34"/>
       <c r="J8" s="35"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="189"/>
-      <c r="B9" s="190"/>
-      <c r="C9" s="190"/>
-      <c r="D9" s="190"/>
-      <c r="E9" s="190"/>
-      <c r="F9" s="191"/>
+      <c r="A9" s="188"/>
+      <c r="B9" s="189"/>
+      <c r="C9" s="189"/>
+      <c r="D9" s="189"/>
+      <c r="E9" s="189"/>
+      <c r="F9" s="190"/>
       <c r="G9" s="33" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H9" s="34"/>
       <c r="I9" s="34"/>
       <c r="J9" s="35"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="192"/>
-      <c r="B10" s="193"/>
-      <c r="C10" s="193"/>
-      <c r="D10" s="193"/>
-      <c r="E10" s="193"/>
-      <c r="F10" s="194"/>
+      <c r="A10" s="191"/>
+      <c r="B10" s="192"/>
+      <c r="C10" s="192"/>
+      <c r="D10" s="192"/>
+      <c r="E10" s="192"/>
+      <c r="F10" s="193"/>
       <c r="G10" s="27"/>
       <c r="H10" s="29"/>
       <c r="I10" s="29"/>
       <c r="J10" s="26"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="195" t="s">
+      <c r="A11" s="194" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="104"/>
-      <c r="C11" s="104"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="104"/>
+      <c r="B11" s="103"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
       <c r="F11" s="17"/>
       <c r="G11" s="31" t="s">
         <v>72</v>
@@ -33626,14 +33672,14 @@
       <c r="J11" s="17"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="196" t="str">
+      <c r="A12" s="195" t="str">
         <f>'input data'!B7</f>
         <v>To the Order</v>
       </c>
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
+      <c r="B12" s="94"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="94"/>
       <c r="F12" s="19"/>
       <c r="G12" s="18"/>
       <c r="H12" s="4"/>
@@ -33641,11 +33687,11 @@
       <c r="J12" s="19"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="115"/>
-      <c r="B13" s="116"/>
-      <c r="C13" s="116"/>
-      <c r="D13" s="116"/>
-      <c r="E13" s="116"/>
+      <c r="A13" s="114"/>
+      <c r="B13" s="115"/>
+      <c r="C13" s="115"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="115"/>
       <c r="F13" s="26"/>
       <c r="G13" s="18"/>
       <c r="H13" s="4"/>
@@ -33653,21 +33699,21 @@
       <c r="J13" s="19"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="195" t="s">
+      <c r="A14" s="194" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="104"/>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="105"/>
+      <c r="B14" s="103"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="104"/>
       <c r="G14" s="18"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="19"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="141" t="str">
+      <c r="A15" s="140" t="str">
         <f>'input data'!B8</f>
         <v xml:space="preserve">GRUPO MARMOLERO SM S. DE R.L. DE C.V.
 Add: ALVARO OBREGON 43, 
@@ -33675,190 +33721,190 @@
 RFC:  GMS170908L86
 Contact : +52 33 1311 4150   </v>
       </c>
-      <c r="B15" s="95"/>
-      <c r="C15" s="95"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="113"/>
+      <c r="B15" s="94"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="112"/>
       <c r="G15" s="18"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="19"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="140"/>
-      <c r="B16" s="95"/>
-      <c r="C16" s="95"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="113"/>
+      <c r="A16" s="139"/>
+      <c r="B16" s="94"/>
+      <c r="C16" s="94"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="112"/>
       <c r="G16" s="18"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="19"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="140"/>
-      <c r="B17" s="95"/>
-      <c r="C17" s="95"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="113"/>
+      <c r="A17" s="139"/>
+      <c r="B17" s="94"/>
+      <c r="C17" s="94"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="112"/>
       <c r="G17" s="18"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="19"/>
     </row>
     <row r="18" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="140"/>
-      <c r="B18" s="95"/>
-      <c r="C18" s="95"/>
-      <c r="D18" s="95"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="113"/>
-      <c r="G18" s="180" t="s">
+      <c r="A18" s="139"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="112"/>
+      <c r="G18" s="179" t="s">
         <v>73</v>
       </c>
-      <c r="H18" s="105"/>
-      <c r="I18" s="181" t="s">
+      <c r="H18" s="104"/>
+      <c r="I18" s="180" t="s">
         <v>74</v>
       </c>
-      <c r="J18" s="105"/>
+      <c r="J18" s="104"/>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="140"/>
-      <c r="B19" s="95"/>
-      <c r="C19" s="95"/>
-      <c r="D19" s="95"/>
-      <c r="E19" s="95"/>
-      <c r="F19" s="113"/>
-      <c r="G19" s="115"/>
-      <c r="H19" s="117"/>
-      <c r="I19" s="116"/>
-      <c r="J19" s="117"/>
+      <c r="A19" s="139"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="112"/>
+      <c r="G19" s="114"/>
+      <c r="H19" s="116"/>
+      <c r="I19" s="115"/>
+      <c r="J19" s="116"/>
     </row>
     <row r="20" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="115"/>
-      <c r="B20" s="116"/>
-      <c r="C20" s="116"/>
-      <c r="D20" s="116"/>
-      <c r="E20" s="116"/>
-      <c r="F20" s="117"/>
-      <c r="G20" s="182" t="s">
+      <c r="A20" s="114"/>
+      <c r="B20" s="115"/>
+      <c r="C20" s="115"/>
+      <c r="D20" s="115"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="181" t="s">
         <v>51</v>
       </c>
-      <c r="H20" s="117"/>
-      <c r="I20" s="182" t="str">
+      <c r="H20" s="116"/>
+      <c r="I20" s="181" t="str">
         <f>'input data'!B23</f>
         <v>MEXICO</v>
       </c>
-      <c r="J20" s="117"/>
+      <c r="J20" s="116"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="178" t="s">
+      <c r="A21" s="177" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="104"/>
-      <c r="C21" s="105"/>
-      <c r="D21" s="178" t="s">
+      <c r="B21" s="103"/>
+      <c r="C21" s="104"/>
+      <c r="D21" s="177" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="104"/>
-      <c r="F21" s="105"/>
-      <c r="G21" s="197" t="s">
+      <c r="E21" s="103"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="196" t="s">
         <v>77</v>
       </c>
-      <c r="H21" s="135"/>
-      <c r="I21" s="135"/>
-      <c r="J21" s="136"/>
+      <c r="H21" s="134"/>
+      <c r="I21" s="134"/>
+      <c r="J21" s="135"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="147"/>
-      <c r="B22" s="116"/>
-      <c r="C22" s="117"/>
-      <c r="D22" s="148" t="str">
+      <c r="A22" s="146"/>
+      <c r="B22" s="115"/>
+      <c r="C22" s="116"/>
+      <c r="D22" s="147" t="str">
         <f>'input data'!B19</f>
         <v>CHENNAI</v>
       </c>
-      <c r="E22" s="116"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="179" t="str">
+      <c r="E22" s="115"/>
+      <c r="F22" s="116"/>
+      <c r="G22" s="178" t="str">
         <f>'input data'!B17</f>
         <v>FOB</v>
       </c>
-      <c r="H22" s="116"/>
-      <c r="I22" s="116"/>
-      <c r="J22" s="117"/>
+      <c r="H22" s="115"/>
+      <c r="I22" s="115"/>
+      <c r="J22" s="116"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="178" t="s">
+      <c r="A23" s="177" t="s">
         <v>78</v>
       </c>
-      <c r="B23" s="104"/>
-      <c r="C23" s="105"/>
-      <c r="D23" s="178" t="s">
+      <c r="B23" s="103"/>
+      <c r="C23" s="104"/>
+      <c r="D23" s="177" t="s">
         <v>79</v>
       </c>
-      <c r="E23" s="104"/>
-      <c r="F23" s="105"/>
+      <c r="E23" s="103"/>
+      <c r="F23" s="104"/>
       <c r="G23" s="36"/>
       <c r="H23" s="37"/>
       <c r="I23" s="37"/>
       <c r="J23" s="38"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="147"/>
-      <c r="B24" s="116"/>
-      <c r="C24" s="117"/>
-      <c r="D24" s="148" t="str">
+      <c r="A24" s="146"/>
+      <c r="B24" s="115"/>
+      <c r="C24" s="116"/>
+      <c r="D24" s="147" t="str">
         <f>'input data'!B20</f>
         <v>CHENNAI</v>
       </c>
-      <c r="E24" s="116"/>
-      <c r="F24" s="117"/>
+      <c r="E24" s="115"/>
+      <c r="F24" s="116"/>
       <c r="G24" s="27"/>
       <c r="H24" s="29"/>
       <c r="I24" s="29"/>
       <c r="J24" s="26"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="178" t="s">
+      <c r="A25" s="177" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="104"/>
-      <c r="C25" s="105"/>
-      <c r="D25" s="178" t="s">
+      <c r="B25" s="103"/>
+      <c r="C25" s="104"/>
+      <c r="D25" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="104"/>
-      <c r="F25" s="105"/>
-      <c r="G25" s="170" t="s">
+      <c r="E25" s="103"/>
+      <c r="F25" s="104"/>
+      <c r="G25" s="169" t="s">
         <v>80</v>
       </c>
-      <c r="H25" s="135"/>
-      <c r="I25" s="135"/>
-      <c r="J25" s="136"/>
+      <c r="H25" s="134"/>
+      <c r="I25" s="134"/>
+      <c r="J25" s="135"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="146" t="str">
+      <c r="A26" s="145" t="str">
         <f>'input data'!B21</f>
         <v>MANZILLE</v>
       </c>
-      <c r="B26" s="95"/>
-      <c r="C26" s="113"/>
-      <c r="D26" s="146" t="str">
+      <c r="B26" s="94"/>
+      <c r="C26" s="112"/>
+      <c r="D26" s="145" t="str">
         <f>'input data'!B22</f>
         <v>MANZILLE</v>
       </c>
-      <c r="E26" s="95"/>
-      <c r="F26" s="113"/>
-      <c r="G26" s="180" t="str">
+      <c r="E26" s="94"/>
+      <c r="F26" s="112"/>
+      <c r="G26" s="179" t="str">
         <f>'input data'!B18</f>
         <v>30 % Advance, Remaning Against Document</v>
       </c>
-      <c r="H26" s="104"/>
-      <c r="I26" s="104"/>
-      <c r="J26" s="105"/>
+      <c r="H26" s="103"/>
+      <c r="I26" s="103"/>
+      <c r="J26" s="104"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="39"/>
@@ -33876,113 +33922,113 @@
       <c r="A28" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="148" t="s">
+      <c r="B28" s="147" t="s">
         <v>81</v>
       </c>
-      <c r="C28" s="117"/>
-      <c r="D28" s="148" t="s">
+      <c r="C28" s="116"/>
+      <c r="D28" s="147" t="s">
         <v>54</v>
       </c>
-      <c r="E28" s="116"/>
-      <c r="F28" s="116"/>
+      <c r="E28" s="115"/>
+      <c r="F28" s="115"/>
       <c r="G28" s="42"/>
       <c r="H28" s="43"/>
-      <c r="I28" s="148" t="s">
+      <c r="I28" s="147" t="s">
         <v>58</v>
       </c>
-      <c r="J28" s="117"/>
+      <c r="J28" s="116"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="24">
         <v>1</v>
       </c>
-      <c r="B29" s="152">
+      <c r="B29" s="151">
         <f>'Invoice rockstone'!E28</f>
         <v>68022390</v>
       </c>
-      <c r="C29" s="136"/>
-      <c r="D29" s="168">
+      <c r="C29" s="135"/>
+      <c r="D29" s="167" t="str">
         <f>'Invoice rockstone'!B28</f>
-        <v>1</v>
+        <v>Absolute Black</v>
       </c>
-      <c r="E29" s="135"/>
-      <c r="F29" s="135"/>
-      <c r="G29" s="135"/>
-      <c r="H29" s="136"/>
-      <c r="I29" s="169">
+      <c r="E29" s="134"/>
+      <c r="F29" s="134"/>
+      <c r="G29" s="134"/>
+      <c r="H29" s="135"/>
+      <c r="I29" s="168">
         <f>'Invoice rockstone'!F28</f>
-        <v>100</v>
+        <v>111.84</v>
       </c>
-      <c r="J29" s="136"/>
+      <c r="J29" s="135"/>
     </row>
     <row r="30" spans="1:10" s="83" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="24">
         <v>2</v>
       </c>
-      <c r="B30" s="152">
+      <c r="B30" s="151">
         <f>'Invoice rockstone'!E29</f>
         <v>68022390</v>
       </c>
-      <c r="C30" s="136"/>
-      <c r="D30" s="168">
+      <c r="C30" s="135"/>
+      <c r="D30" s="167" t="str">
         <f>'Invoice rockstone'!B29</f>
-        <v>2</v>
+        <v>Galaxy Black</v>
       </c>
-      <c r="E30" s="135"/>
-      <c r="F30" s="135"/>
-      <c r="G30" s="135"/>
-      <c r="H30" s="136"/>
-      <c r="I30" s="169">
+      <c r="E30" s="134"/>
+      <c r="F30" s="134"/>
+      <c r="G30" s="134"/>
+      <c r="H30" s="135"/>
+      <c r="I30" s="168">
         <f>'Invoice rockstone'!F29</f>
-        <v>200</v>
+        <v>111.8</v>
       </c>
-      <c r="J30" s="136"/>
+      <c r="J30" s="135"/>
     </row>
     <row r="31" spans="1:10" s="83" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="24">
         <v>3</v>
       </c>
-      <c r="B31" s="152">
+      <c r="B31" s="151">
         <f>'Invoice rockstone'!E30</f>
         <v>68022390</v>
       </c>
-      <c r="C31" s="136"/>
-      <c r="D31" s="168">
+      <c r="C31" s="135"/>
+      <c r="D31" s="167" t="str">
         <f>'Invoice rockstone'!B30</f>
-        <v>3</v>
+        <v>Steel grey polished</v>
       </c>
-      <c r="E31" s="135"/>
-      <c r="F31" s="135"/>
-      <c r="G31" s="135"/>
-      <c r="H31" s="136"/>
-      <c r="I31" s="169">
+      <c r="E31" s="134"/>
+      <c r="F31" s="134"/>
+      <c r="G31" s="134"/>
+      <c r="H31" s="135"/>
+      <c r="I31" s="168">
         <f>'Invoice rockstone'!F30</f>
-        <v>300</v>
+        <v>109.48</v>
       </c>
-      <c r="J31" s="136"/>
+      <c r="J31" s="135"/>
     </row>
     <row r="32" spans="1:10" s="83" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="24">
         <v>4</v>
       </c>
-      <c r="B32" s="152">
+      <c r="B32" s="151">
         <f>'Invoice rockstone'!E31</f>
         <v>68022390</v>
       </c>
-      <c r="C32" s="136"/>
-      <c r="D32" s="168">
+      <c r="C32" s="135"/>
+      <c r="D32" s="167" t="str">
         <f>'Invoice rockstone'!B31</f>
-        <v>4</v>
+        <v>Steel grey leathered</v>
       </c>
-      <c r="E32" s="135"/>
-      <c r="F32" s="135"/>
-      <c r="G32" s="135"/>
-      <c r="H32" s="136"/>
-      <c r="I32" s="169">
+      <c r="E32" s="134"/>
+      <c r="F32" s="134"/>
+      <c r="G32" s="134"/>
+      <c r="H32" s="135"/>
+      <c r="I32" s="168">
         <f>'Invoice rockstone'!F31</f>
-        <v>400</v>
+        <v>109.93</v>
       </c>
-      <c r="J32" s="136"/>
+      <c r="J32" s="135"/>
     </row>
     <row r="33" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="44" t="s">
@@ -33995,11 +34041,11 @@
       <c r="F33" s="40"/>
       <c r="G33" s="40"/>
       <c r="H33" s="40"/>
-      <c r="I33" s="177">
+      <c r="I33" s="176">
         <f>SUM(I29:J32)</f>
-        <v>1000</v>
+        <v>443.05</v>
       </c>
-      <c r="J33" s="136"/>
+      <c r="J33" s="135"/>
     </row>
     <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="32"/>
@@ -34014,17 +34060,17 @@
       <c r="J34" s="30"/>
     </row>
     <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="146" t="s">
+      <c r="A35" s="145" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="95"/>
+      <c r="B35" s="94"/>
       <c r="C35" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="174" t="s">
+      <c r="D35" s="173" t="s">
         <v>60</v>
       </c>
-      <c r="E35" s="95"/>
+      <c r="E35" s="94"/>
       <c r="F35" s="28" t="s">
         <v>61</v>
       </c>
@@ -34034,19 +34080,19 @@
       <c r="J35" s="30"/>
     </row>
     <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="132" t="e">
+      <c r="A36" s="131" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B36" s="95"/>
+      <c r="B36" s="94"/>
       <c r="C36" s="45">
         <f>'input data'!B25</f>
-        <v>450</v>
+        <v>0</v>
       </c>
-      <c r="D36" s="175" t="s">
+      <c r="D36" s="174" t="s">
         <v>84</v>
       </c>
-      <c r="E36" s="95"/>
+      <c r="E36" s="94"/>
       <c r="F36" s="45" t="s">
         <v>85</v>
       </c>
@@ -34111,64 +34157,64 @@
       <c r="J40" s="50"/>
     </row>
     <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="133" t="s">
+      <c r="A41" s="132" t="s">
         <v>88</v>
       </c>
-      <c r="B41" s="104"/>
-      <c r="C41" s="104"/>
-      <c r="D41" s="104"/>
-      <c r="E41" s="104"/>
-      <c r="F41" s="105"/>
-      <c r="G41" s="133" t="s">
-        <v>121</v>
+      <c r="B41" s="103"/>
+      <c r="C41" s="103"/>
+      <c r="D41" s="103"/>
+      <c r="E41" s="103"/>
+      <c r="F41" s="104"/>
+      <c r="G41" s="132" t="s">
+        <v>120</v>
       </c>
-      <c r="H41" s="104"/>
-      <c r="I41" s="104"/>
-      <c r="J41" s="105"/>
+      <c r="H41" s="103"/>
+      <c r="I41" s="103"/>
+      <c r="J41" s="104"/>
     </row>
     <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="176" t="s">
+      <c r="A42" s="175" t="s">
         <v>89</v>
       </c>
-      <c r="B42" s="95"/>
-      <c r="C42" s="95"/>
-      <c r="D42" s="95"/>
-      <c r="E42" s="95"/>
-      <c r="F42" s="113"/>
+      <c r="B42" s="94"/>
+      <c r="C42" s="94"/>
+      <c r="D42" s="94"/>
+      <c r="E42" s="94"/>
+      <c r="F42" s="112"/>
       <c r="G42" s="18"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="19"/>
     </row>
     <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="171" t="s">
+      <c r="A43" s="170" t="s">
         <v>90</v>
       </c>
-      <c r="B43" s="156"/>
-      <c r="C43" s="156"/>
-      <c r="D43" s="156"/>
-      <c r="E43" s="156"/>
-      <c r="F43" s="157"/>
+      <c r="B43" s="155"/>
+      <c r="C43" s="155"/>
+      <c r="D43" s="155"/>
+      <c r="E43" s="155"/>
+      <c r="F43" s="156"/>
       <c r="G43" s="18"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="19"/>
     </row>
     <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="172" t="s">
+      <c r="A44" s="171" t="s">
         <v>91</v>
       </c>
-      <c r="B44" s="101"/>
-      <c r="C44" s="101"/>
-      <c r="D44" s="101"/>
-      <c r="E44" s="101"/>
-      <c r="F44" s="108"/>
-      <c r="G44" s="173" t="s">
+      <c r="B44" s="100"/>
+      <c r="C44" s="100"/>
+      <c r="D44" s="100"/>
+      <c r="E44" s="100"/>
+      <c r="F44" s="107"/>
+      <c r="G44" s="172" t="s">
         <v>92</v>
       </c>
-      <c r="H44" s="116"/>
-      <c r="I44" s="116"/>
-      <c r="J44" s="117"/>
+      <c r="H44" s="115"/>
+      <c r="I44" s="115"/>
+      <c r="J44" s="116"/>
     </row>
     <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -35198,10 +35244,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:Y998"/>
+  <dimension ref="A1:Y997"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -35215,84 +35261,84 @@
   <sheetData>
     <row r="1" spans="1:25" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="51"/>
-      <c r="B1" s="217" t="s">
-        <v>117</v>
+      <c r="B1" s="214" t="s">
+        <v>116</v>
       </c>
-      <c r="C1" s="218"/>
-      <c r="D1" s="218"/>
-      <c r="E1" s="218"/>
-      <c r="F1" s="218"/>
-      <c r="G1" s="218"/>
-      <c r="H1" s="218"/>
-      <c r="I1" s="218"/>
-      <c r="J1" s="218"/>
-      <c r="K1" s="219"/>
-      <c r="R1" s="223"/>
-      <c r="S1" s="95"/>
-      <c r="T1" s="95"/>
-      <c r="U1" s="95"/>
-      <c r="V1" s="95"/>
-      <c r="W1" s="206"/>
-      <c r="X1" s="95"/>
-      <c r="Y1" s="95"/>
+      <c r="C1" s="215"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="215"/>
+      <c r="F1" s="215"/>
+      <c r="G1" s="215"/>
+      <c r="H1" s="215"/>
+      <c r="I1" s="215"/>
+      <c r="J1" s="215"/>
+      <c r="K1" s="216"/>
+      <c r="R1" s="220"/>
+      <c r="S1" s="94"/>
+      <c r="T1" s="94"/>
+      <c r="U1" s="94"/>
+      <c r="V1" s="94"/>
+      <c r="W1" s="202"/>
+      <c r="X1" s="94"/>
+      <c r="Y1" s="94"/>
     </row>
     <row r="2" spans="1:25" ht="36.75" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="51"/>
-      <c r="B2" s="220"/>
-      <c r="C2" s="221"/>
-      <c r="D2" s="221"/>
-      <c r="E2" s="221"/>
-      <c r="F2" s="221"/>
-      <c r="G2" s="221"/>
-      <c r="H2" s="221"/>
-      <c r="I2" s="221"/>
-      <c r="J2" s="221"/>
-      <c r="K2" s="222"/>
+      <c r="B2" s="217"/>
+      <c r="C2" s="218"/>
+      <c r="D2" s="218"/>
+      <c r="E2" s="218"/>
+      <c r="F2" s="218"/>
+      <c r="G2" s="218"/>
+      <c r="H2" s="218"/>
+      <c r="I2" s="218"/>
+      <c r="J2" s="218"/>
+      <c r="K2" s="219"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="52"/>
-      <c r="B3" s="224" t="s">
+      <c r="B3" s="209" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="104"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="52"/>
+      <c r="B4" s="210" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="112"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="45"/>
+      <c r="B5" s="211" t="s">
         <v>148</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="105"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="52"/>
-      <c r="B4" s="225" t="s">
-        <v>149</v>
-      </c>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
-      <c r="K4" s="113"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
-      <c r="B5" s="214" t="s">
-        <v>150</v>
-      </c>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="116"/>
-      <c r="K5" s="117"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="116"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
@@ -35309,18 +35355,18 @@
     </row>
     <row r="7" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="53"/>
-      <c r="B7" s="231" t="s">
-        <v>161</v>
+      <c r="B7" s="212" t="s">
+        <v>156</v>
       </c>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="113"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="94"/>
+      <c r="I7" s="94"/>
+      <c r="J7" s="94"/>
+      <c r="K7" s="112"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
@@ -35340,8 +35386,8 @@
       <c r="B9" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="62">
-        <v>45904</v>
+      <c r="C9" s="62" t="s">
+        <v>155</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -35358,7 +35404,7 @@
         <v>94</v>
       </c>
       <c r="C10" s="54" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -35399,14 +35445,14 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
-      <c r="B13" s="215" t="s">
-        <v>156</v>
+      <c r="B13" s="221" t="s">
+        <v>158</v>
       </c>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="95"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="94"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -35414,14 +35460,14 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="55"/>
-      <c r="B14" s="141" t="s">
-        <v>164</v>
+      <c r="B14" s="140" t="s">
+        <v>159</v>
       </c>
-      <c r="C14" s="95"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="95"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="94"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -35429,12 +35475,12 @@
     </row>
     <row r="15" spans="1:25" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="55"/>
-      <c r="B15" s="140"/>
-      <c r="C15" s="95"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="95"/>
+      <c r="B15" s="139"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="94"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -35470,144 +35516,133 @@
     </row>
     <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="46"/>
-      <c r="B18" s="134" t="s">
+      <c r="B18" s="133" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="137"/>
-      <c r="D18" s="137"/>
-      <c r="E18" s="216"/>
-      <c r="F18" s="134" t="s">
+      <c r="C18" s="136"/>
+      <c r="D18" s="136"/>
+      <c r="E18" s="222"/>
+      <c r="F18" s="133" t="s">
         <v>98</v>
       </c>
-      <c r="G18" s="136"/>
-      <c r="H18" s="134" t="s">
+      <c r="G18" s="135"/>
+      <c r="H18" s="133" t="s">
+        <v>153</v>
+      </c>
+      <c r="I18" s="135"/>
+      <c r="J18" s="133" t="s">
+        <v>99</v>
+      </c>
+      <c r="K18" s="135"/>
+    </row>
+    <row r="19" spans="1:11" s="233" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="228"/>
+      <c r="B19" s="225" t="s">
         <v>160</v>
       </c>
-      <c r="I18" s="136"/>
-      <c r="J18" s="134" t="s">
-        <v>99</v>
+      <c r="C19" s="226"/>
+      <c r="D19" s="226"/>
+      <c r="E19" s="227"/>
+      <c r="F19" s="229">
+        <v>261.52999999999997</v>
       </c>
-      <c r="K18" s="136"/>
-    </row>
-    <row r="19" spans="1:11" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="226" t="s">
-        <v>158</v>
+      <c r="G19" s="230"/>
+      <c r="H19" s="231">
+        <v>1266</v>
       </c>
-      <c r="C19" s="210"/>
-      <c r="D19" s="210"/>
-      <c r="E19" s="211"/>
-      <c r="F19" s="227">
-        <v>97</v>
+      <c r="I19" s="230"/>
+      <c r="J19" s="232">
+        <f>F19*H19</f>
+        <v>331096.98</v>
       </c>
-      <c r="G19" s="228"/>
-      <c r="H19" s="229">
-        <v>1695</v>
+      <c r="K19" s="230"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="45"/>
+      <c r="B20" s="131"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="202"/>
+      <c r="G20" s="203"/>
+      <c r="H20" s="197" t="s">
+        <v>161</v>
       </c>
-      <c r="I19" s="228"/>
-      <c r="J19" s="230">
-        <f>F19*H19</f>
-        <v>164415</v>
+      <c r="I20" s="198"/>
+      <c r="J20" s="204">
+        <f>(J19)*0.001</f>
+        <v>331.09697999999997</v>
       </c>
-      <c r="K19" s="228"/>
-    </row>
-    <row r="20" spans="1:11" s="91" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="14"/>
-      <c r="B20" s="226" t="s">
-        <v>159</v>
-      </c>
-      <c r="C20" s="210"/>
-      <c r="D20" s="210"/>
-      <c r="E20" s="211"/>
-      <c r="F20" s="227">
-        <v>97</v>
-      </c>
-      <c r="G20" s="228"/>
-      <c r="H20" s="229">
-        <v>1695</v>
-      </c>
-      <c r="I20" s="228"/>
-      <c r="J20" s="230">
-        <f>F20*H20</f>
-        <v>164415</v>
-      </c>
-      <c r="K20" s="228"/>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="45"/>
-      <c r="B21" s="132"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="206"/>
-      <c r="G21" s="209"/>
-      <c r="H21" s="198" t="s">
-        <v>112</v>
-      </c>
-      <c r="I21" s="199"/>
-      <c r="J21" s="212">
-        <f>(J19+J20)*0.001</f>
-        <v>328.83</v>
-      </c>
-      <c r="K21" s="213"/>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="173"/>
-      <c r="C22" s="116"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="201" t="s">
+      <c r="K20" s="205"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="172"/>
+      <c r="C21" s="115"/>
+      <c r="D21" s="115"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="200" t="s">
         <v>82</v>
       </c>
-      <c r="I22" s="202"/>
-      <c r="J22" s="203">
-        <f>SUM(J19:K21)</f>
-        <v>329158.83</v>
+      <c r="I21" s="201"/>
+      <c r="J21" s="223">
+        <f>SUM(J19:K20)</f>
+        <v>331428.07697999995</v>
       </c>
-      <c r="K22" s="204"/>
-    </row>
-    <row r="23" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="45"/>
-      <c r="B23" s="132"/>
-      <c r="C23" s="95"/>
-      <c r="D23" s="95"/>
-      <c r="E23" s="95"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="205" t="s">
-        <v>162</v>
-      </c>
-      <c r="I23" s="95"/>
-      <c r="J23" s="206">
-        <v>150000</v>
-      </c>
-      <c r="K23" s="113"/>
-    </row>
-    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="46"/>
-      <c r="B24" s="207" t="s">
+      <c r="K21" s="224"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="45"/>
+      <c r="B22" s="131"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="206"/>
+      <c r="I22" s="94"/>
+      <c r="J22" s="202"/>
+      <c r="K22" s="112"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="46"/>
+      <c r="B23" s="207" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="135"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="208">
-        <f>J22</f>
-        <v>329158.83</v>
+      <c r="C23" s="134"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="208">
+        <f>J21</f>
+        <v>331428.07697999995</v>
       </c>
-      <c r="K24" s="136"/>
+      <c r="K23" s="135"/>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="19"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="4"/>
+      <c r="A25" s="57"/>
+      <c r="B25" s="199" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="94"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -35618,15 +35653,17 @@
       <c r="K25" s="19"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="57"/>
-      <c r="B26" s="200" t="s">
-        <v>101</v>
+      <c r="A26" s="4"/>
+      <c r="B26" s="18" t="s">
+        <v>102</v>
       </c>
-      <c r="C26" s="95"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
@@ -35635,16 +35672,13 @@
     <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="18" t="s">
-        <v>102</v>
+        <v>154</v>
       </c>
       <c r="C27" s="4"/>
-      <c r="D27" s="1" t="str">
-        <f>'input data'!B15 &amp; " with loading"</f>
-        <v>Wooden Crate packing with loading</v>
-      </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="D27" s="213"/>
+      <c r="E27" s="213"/>
+      <c r="F27" s="213"/>
+      <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
@@ -35653,14 +35687,12 @@
     <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="18" t="s">
-        <v>163</v>
+        <v>103</v>
       </c>
       <c r="C28" s="4"/>
-      <c r="D28" s="232">
-        <v>45920</v>
-      </c>
-      <c r="E28" s="232"/>
-      <c r="F28" s="232"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
@@ -35670,10 +35702,12 @@
     <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
+      <c r="D29" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
@@ -35685,12 +35719,10 @@
     <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C30" s="4"/>
-      <c r="D30" s="4" t="s">
-        <v>157</v>
-      </c>
+      <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
@@ -35702,7 +35734,7 @@
     <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="18" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -35717,10 +35749,12 @@
     <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="18" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
+      <c r="D32" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
@@ -35731,12 +35765,10 @@
     </row>
     <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
-      <c r="B33" s="18" t="s">
-        <v>107</v>
-      </c>
+      <c r="B33" s="18"/>
       <c r="C33" s="4"/>
       <c r="D33" s="1" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -35751,9 +35783,9 @@
       <c r="B34" s="18"/>
       <c r="C34" s="4"/>
       <c r="D34" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
-      <c r="E34" s="4"/>
+      <c r="E34" s="1"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
@@ -35762,15 +35794,15 @@
       <c r="K34" s="19"/>
     </row>
     <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="1" t="s">
-        <v>151</v>
+      <c r="A35" s="58"/>
+      <c r="B35" s="184" t="s">
+        <v>150</v>
       </c>
-      <c r="E35" s="1"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
+      <c r="C35" s="94"/>
+      <c r="D35" s="94"/>
+      <c r="E35" s="94"/>
+      <c r="F35" s="94"/>
+      <c r="G35" s="94"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
@@ -35778,47 +35810,47 @@
     </row>
     <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="58"/>
-      <c r="B36" s="185" t="s">
-        <v>152</v>
+      <c r="B36" s="184" t="s">
+        <v>151</v>
       </c>
-      <c r="C36" s="95"/>
-      <c r="D36" s="95"/>
-      <c r="E36" s="95"/>
-      <c r="F36" s="95"/>
-      <c r="G36" s="95"/>
+      <c r="C36" s="94"/>
+      <c r="D36" s="94"/>
+      <c r="E36" s="94"/>
+      <c r="F36" s="94"/>
+      <c r="G36" s="94"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="19"/>
     </row>
     <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="58"/>
-      <c r="B37" s="185" t="s">
-        <v>153</v>
+      <c r="A37" s="34"/>
+      <c r="B37" s="33" t="s">
+        <v>108</v>
       </c>
-      <c r="C37" s="95"/>
-      <c r="D37" s="95"/>
-      <c r="E37" s="95"/>
-      <c r="F37" s="95"/>
-      <c r="G37" s="95"/>
+      <c r="C37" s="59" t="str">
+        <f>'input data'!B6</f>
+        <v>AD240725023182F</v>
+      </c>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="19"/>
     </row>
     <row r="38" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="34"/>
-      <c r="B38" s="33" t="s">
-        <v>108</v>
+      <c r="A38" s="4"/>
+      <c r="B38" s="32" t="s">
+        <v>120</v>
       </c>
-      <c r="C38" s="59" t="str">
-        <f>'input data'!B6</f>
-        <v>AD240725023182F</v>
-      </c>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
@@ -35826,9 +35858,7 @@
     </row>
     <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
-      <c r="B39" s="32" t="s">
-        <v>121</v>
-      </c>
+      <c r="B39" s="18"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -35854,30 +35884,18 @@
     </row>
     <row r="41" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="19"/>
-    </row>
-    <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="29"/>
-      <c r="K42" s="26"/>
-    </row>
+      <c r="B41" s="27"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="26"/>
+    </row>
+    <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -36833,46 +36851,41 @@
     <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="B1:K2"/>
-    <mergeCell ref="R1:V1"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:K5"/>
-    <mergeCell ref="B7:K7"/>
+  <mergeCells count="33">
     <mergeCell ref="B13:G13"/>
     <mergeCell ref="B14:G15"/>
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="B18:E18"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B1:K2"/>
+    <mergeCell ref="R1:V1"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="H22:I22"/>
     <mergeCell ref="J22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="J21:K21"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="B20:E20"/>
     <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J19:K19"/>
     <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="H21:I21"/>
     <mergeCell ref="F20:G20"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="H22:I22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="78" orientation="portrait" r:id="rId1"/>
